--- a/CodeSystem-napkon-pediatrics-module.xlsx
+++ b/CodeSystem-napkon-pediatrics-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T22:52:28+00:00</t>
+    <t>2021-10-12T07:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-pediatrics-module.xlsx
+++ b/CodeSystem-napkon-pediatrics-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T07:19:41+00:00</t>
+    <t>2021-10-12T09:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-pediatrics-module.xlsx
+++ b/CodeSystem-napkon-pediatrics-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T09:47:10+00:00</t>
+    <t>2021-10-12T12:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-pediatrics-module.xlsx
+++ b/CodeSystem-napkon-pediatrics-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:09:14+00:00</t>
+    <t>2021-10-12T12:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-pediatrics-module.xlsx
+++ b/CodeSystem-napkon-pediatrics-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T12:18:04+00:00</t>
+    <t>2021-10-19T07:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,55 +129,55 @@
     <t>000001</t>
   </si>
   <si>
-    <t>Sphingosine analogue (substance)</t>
+    <t>Sphingosine analogue</t>
   </si>
   <si>
     <t>000002</t>
   </si>
   <si>
-    <t>Substance with interleukin 2 receptor antagonist mechanism of action (substance)</t>
+    <t>Interleukin 2 receptor antagonist</t>
   </si>
   <si>
     <t>000003</t>
   </si>
   <si>
-    <t>Substance with interleukin 17 receptor antagonist mechanism of action (substance)</t>
+    <t>Interleukin 17 receptor antagonist</t>
   </si>
   <si>
     <t>000004</t>
   </si>
   <si>
-    <t>Anti-CD20 antibody (substance)</t>
+    <t>Anti-CD20 antibody</t>
   </si>
   <si>
     <t>000005</t>
   </si>
   <si>
-    <t>Anti-CD52 antibody (substance)</t>
+    <t>Anti-CD52 antibody</t>
   </si>
   <si>
     <t>000006</t>
   </si>
   <si>
-    <t>Anti-CD3 antibody (substance)</t>
+    <t>Anti-CD3 antibody</t>
   </si>
   <si>
     <t>000007</t>
   </si>
   <si>
-    <t>Anti-CD3/CD19 antibody (substance)</t>
+    <t>Anti-CD3/CD19 antibody</t>
   </si>
   <si>
     <t>000008</t>
   </si>
   <si>
-    <t>Substance with Integrin inhibitor mechanism of action (substance)</t>
+    <t>Integrin inhibitor</t>
   </si>
   <si>
     <t>000009</t>
   </si>
   <si>
-    <t>Substance with B cell activating factor inhibitor mechanism of action (substance)</t>
+    <t>B cell activating factor inhibitor</t>
   </si>
 </sst>
 </file>

--- a/CodeSystem-napkon-pediatrics-module.xlsx
+++ b/CodeSystem-napkon-pediatrics-module.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T07:51:56+00:00</t>
+    <t>2021-10-19T09:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-pediatrics-module.xlsx
+++ b/CodeSystem-napkon-pediatrics-module.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T09:50:53+00:00</t>
+    <t>2021-10-19T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>Level</t>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>B cell activating factor inhibitor</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>Mammalian target of rapamycin (mTOR)-Kinase inhibitor</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -606,6 +612,18 @@
       </c>
       <c r="D10" s="2"/>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
